--- a/refs/heads/rc2/StructureDefinition-svc-qr-uvci.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-qr-uvci.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="129">
   <si>
     <t>Path</t>
   </si>
@@ -399,13 +399,16 @@
     <t>Identifier of the [SVC Patient](http://hl7.org/fhir/R4/StructureDefinition-svc-patient.html), if provided</t>
   </si>
   <si>
+    <t>svc-qr-uvci.phaid</t>
+  </si>
+  <si>
+    <t>SVC Signature</t>
+  </si>
+  <si>
+    <t>Signature of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) using a PHA's DSC</t>
+  </si>
+  <si>
     <t>svc-qr-uvci.signature</t>
-  </si>
-  <si>
-    <t>SVC Signature</t>
-  </si>
-  <si>
-    <t>Signature of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) using a PHA's DSC</t>
   </si>
   <si>
     <t>svc-qr-uvci.version</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2161,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>123</v>
@@ -2264,10 +2267,10 @@
         <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2336,8 +2339,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2347,7 +2450,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
